--- a/Table_flags.xlsx
+++ b/Table_flags.xlsx
@@ -893,7 +893,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Not reported</t>
+          <t>Not mentioned</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Not mentioned</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Not mentioned</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Multiple</t>
+          <t>Instagram, Facebook</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
